--- a/Sourcing_fan.xlsx
+++ b/Sourcing_fan.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G58276\Desktop\voronpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4BD0FBE5-1B4C-46F9-ACE1-335B948AF0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1464FED-1CCC-49E9-BC3F-5E5DAF0D4ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="12315" windowWidth="29040" windowHeight="15840" xr2:uid="{410EAB39-9C71-433E-A7C7-A8FD67BB207B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$I$108</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="69">
   <si>
     <t>Type</t>
   </si>
@@ -44,9 +47,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Voltage</t>
-  </si>
-  <si>
     <t>RPM</t>
   </si>
   <si>
@@ -65,9 +65,6 @@
     <t>Constructor</t>
   </si>
   <si>
-    <t>Sleeve / ball</t>
-  </si>
-  <si>
     <t>GDA3010-5F</t>
   </si>
   <si>
@@ -98,24 +95,6 @@
     <t>Sunon</t>
   </si>
   <si>
-    <t>Vapo</t>
-  </si>
-  <si>
-    <t>MF40101VX</t>
-  </si>
-  <si>
-    <t>MF30101V1</t>
-  </si>
-  <si>
-    <t>MF30101V2</t>
-  </si>
-  <si>
-    <t>MF40101V1</t>
-  </si>
-  <si>
-    <t>MF40101V2</t>
-  </si>
-  <si>
     <t>2ball</t>
   </si>
   <si>
@@ -137,23 +116,143 @@
     <t>EE40101S2</t>
   </si>
   <si>
-    <t>MF50151VX</t>
-  </si>
-  <si>
-    <t>MF50151V1</t>
-  </si>
-  <si>
-    <t>MF50151V2</t>
-  </si>
-  <si>
-    <t>MF50151V3</t>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>OD3010-12HB</t>
+  </si>
+  <si>
+    <t>OD3010-12MB</t>
+  </si>
+  <si>
+    <t>OD3010-12LB</t>
+  </si>
+  <si>
+    <t>OD4010-12HHB</t>
+  </si>
+  <si>
+    <t>OD4010-12HB</t>
+  </si>
+  <si>
+    <t>OD4010-12MB</t>
+  </si>
+  <si>
+    <t>OD4010-12LB</t>
+  </si>
+  <si>
+    <t>OD4010-24HHB</t>
+  </si>
+  <si>
+    <t>OD4010-24HB</t>
+  </si>
+  <si>
+    <t>oltage</t>
+  </si>
+  <si>
+    <t>Sleee / ball</t>
+  </si>
+  <si>
+    <t>apo</t>
+  </si>
+  <si>
+    <t>MF301011</t>
+  </si>
+  <si>
+    <t>MF301012</t>
+  </si>
+  <si>
+    <t>MF40101X</t>
+  </si>
+  <si>
+    <t>MF401011</t>
+  </si>
+  <si>
+    <t>MF401012</t>
+  </si>
+  <si>
+    <t>Sleee</t>
+  </si>
+  <si>
+    <t>MF50151X</t>
+  </si>
+  <si>
+    <t>MF501511</t>
+  </si>
+  <si>
+    <t>MF501512</t>
+  </si>
+  <si>
+    <t>MF501513</t>
+  </si>
+  <si>
+    <t>OD4010-24MB</t>
+  </si>
+  <si>
+    <t>OD4010-24LB</t>
+  </si>
+  <si>
+    <t>ODB5115-12HB</t>
+  </si>
+  <si>
+    <t>ODB5115-12MB</t>
+  </si>
+  <si>
+    <t>ODB5115-12LB</t>
+  </si>
+  <si>
+    <t>Sanyo denki</t>
+  </si>
+  <si>
+    <t>109P0412H901</t>
+  </si>
+  <si>
+    <t>109P0412M901</t>
+  </si>
+  <si>
+    <t>109P0424H901</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>AFB0412HA-A</t>
+  </si>
+  <si>
+    <t>AFB0412HHA-A</t>
+  </si>
+  <si>
+    <t>AFB0412LA-A</t>
+  </si>
+  <si>
+    <t>AFB0412MA-A</t>
+  </si>
+  <si>
+    <t>AFB0412VA-00</t>
+  </si>
+  <si>
+    <t>ASB0412SA-00</t>
+  </si>
+  <si>
+    <t>EFB0412HA-R00 (EOL)</t>
+  </si>
+  <si>
+    <t>ASB0312HA-D</t>
+  </si>
+  <si>
+    <t>ASB0312LA-D</t>
+  </si>
+  <si>
+    <t>ASB0312MA-D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +265,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B2C2C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,10 +331,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -232,8 +346,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,63 +669,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4748E66B-8407-4F2F-92E1-C9B1B6A7D2C4}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I93" sqref="A93:I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3010</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -619,19 +745,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3010</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>24</v>
@@ -648,19 +774,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3010</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -677,19 +803,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3010</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -706,19 +832,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>3010</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>24</v>
@@ -735,19 +861,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>3010</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -764,19 +890,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>3010</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -793,19 +919,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>3010</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>12</v>
@@ -822,19 +948,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>3010</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -851,19 +977,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3010</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -880,19 +1006,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>3010</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -909,19 +1035,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>3010</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -938,19 +1064,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>3010</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -967,19 +1093,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>3010</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -996,19 +1122,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>3010</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>12</v>
@@ -1025,19 +1151,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>3010</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>24</v>
@@ -1054,19 +1180,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>3010</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>24</v>
@@ -1083,19 +1209,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>3010</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>24</v>
@@ -1112,19 +1238,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>3010</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>12</v>
@@ -1141,19 +1267,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>3010</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>12</v>
@@ -1170,19 +1296,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>3010</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -1199,19 +1325,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>3010</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>12</v>
@@ -1228,19 +1354,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>3010</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -1257,19 +1383,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>3010</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -1286,686 +1412,686 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>4010</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="H26">
-        <v>5.18</v>
+        <v>12</v>
       </c>
       <c r="I26">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>4010</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>24</v>
-      </c>
-      <c r="G27">
-        <v>7500</v>
-      </c>
-      <c r="H27">
-        <v>6.85</v>
-      </c>
-      <c r="I27">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="F27" s="5">
+        <v>12</v>
+      </c>
+      <c r="G27" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="7">
+        <v>12</v>
+      </c>
+      <c r="I27" s="7">
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>4010</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5">
         <v>24</v>
       </c>
-      <c r="G28">
-        <v>8500</v>
-      </c>
-      <c r="H28">
-        <v>7.49</v>
-      </c>
-      <c r="I28">
-        <v>38.4</v>
+      <c r="G28" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="7">
+        <v>12</v>
+      </c>
+      <c r="I28" s="11">
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>4010</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>24</v>
       </c>
       <c r="G29">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="H29">
-        <v>7.6</v>
+        <v>11.2</v>
       </c>
       <c r="I29">
-        <v>41.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>4010</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>24</v>
-      </c>
-      <c r="G30">
-        <v>12000</v>
-      </c>
-      <c r="H30">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I30">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="F30" s="5">
+        <v>12</v>
+      </c>
+      <c r="G30" s="11">
+        <v>9000</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="11">
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>4010</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>4500</v>
-      </c>
-      <c r="H31">
-        <v>4.2</v>
-      </c>
-      <c r="I31">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="5">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7">
+        <v>8500</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>4010</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>12</v>
       </c>
       <c r="G32">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="H32">
-        <v>5.18</v>
+        <v>9.74</v>
       </c>
       <c r="I32">
-        <v>28</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>4010</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G33">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="H33">
-        <v>5.62</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I33">
-        <v>31.7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>4010</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34">
-        <v>12</v>
-      </c>
-      <c r="G34">
-        <v>7500</v>
-      </c>
-      <c r="H34">
-        <v>6.85</v>
-      </c>
-      <c r="I34">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="F34" s="5">
+        <v>12</v>
+      </c>
+      <c r="G34" s="11">
+        <v>8000</v>
+      </c>
+      <c r="H34" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I34" s="11">
+        <v>33.4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>4010</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35">
-        <v>12</v>
-      </c>
-      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="F35" s="5">
+        <v>24</v>
+      </c>
+      <c r="G35" s="11">
         <v>8000</v>
       </c>
-      <c r="H35">
-        <v>6.92</v>
-      </c>
-      <c r="I35">
-        <v>37.200000000000003</v>
+      <c r="H35" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I35" s="11">
+        <v>33.4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>4010</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G36">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="H36">
-        <v>7.95</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I36">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>4010</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F37">
         <v>12</v>
       </c>
       <c r="G37">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>8.86</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>4010</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>24</v>
       </c>
       <c r="G38">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="H38">
-        <v>5.42</v>
+        <v>8.24</v>
       </c>
       <c r="I38">
-        <v>25.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>4010</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39">
-        <v>24</v>
-      </c>
-      <c r="G39">
-        <v>7500</v>
-      </c>
-      <c r="H39">
-        <v>7.3</v>
-      </c>
-      <c r="I39">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="F39" s="5">
+        <v>12</v>
+      </c>
+      <c r="G39" s="7">
+        <v>7300</v>
+      </c>
+      <c r="H39" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I39" s="7">
+        <v>28.2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>4010</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F40">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="H40">
-        <v>8.24</v>
+        <v>8.15</v>
       </c>
       <c r="I40">
-        <v>37</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>4010</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G41">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="H41">
-        <v>9.1199999999999992</v>
+        <v>8.15</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>4010</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G42">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="H42">
-        <v>11.2</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="I42">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>4010</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <v>4500</v>
-      </c>
-      <c r="H43">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="I43">
-        <v>23.9</v>
+        <v>42</v>
+      </c>
+      <c r="F43" s="5">
+        <v>12</v>
+      </c>
+      <c r="G43" s="7">
+        <v>7000</v>
+      </c>
+      <c r="H43" s="7">
+        <v>8</v>
+      </c>
+      <c r="I43" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>4010</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>12</v>
-      </c>
-      <c r="G44">
-        <v>5500</v>
-      </c>
-      <c r="H44">
-        <v>5.42</v>
-      </c>
-      <c r="I44">
-        <v>25.8</v>
+        <v>20</v>
+      </c>
+      <c r="F44" s="5">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7">
+        <v>7000</v>
+      </c>
+      <c r="H44" s="7">
+        <v>8</v>
+      </c>
+      <c r="I44" s="7">
+        <v>27.3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>4010</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F45">
         <v>12</v>
       </c>
       <c r="G45">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="H45">
-        <v>6.38</v>
+        <v>7.95</v>
       </c>
       <c r="I45">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>4010</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G46">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="H46">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="I46">
-        <v>35</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>4010</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G47">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="H47">
-        <v>8.0399999999999991</v>
+        <v>7.49</v>
       </c>
       <c r="I47">
-        <v>36</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>4010</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G48">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="H48">
-        <v>9.74</v>
+        <v>7.3</v>
       </c>
       <c r="I48">
-        <v>40.799999999999997</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>3010</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <v>24</v>
@@ -1982,19 +2108,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>3010</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -2011,19 +2137,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>3010</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -2040,19 +2166,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>3010</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>12</v>
@@ -2069,19 +2195,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>3010</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F53">
         <v>12</v>
@@ -2098,19 +2224,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>3010</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54">
         <v>12</v>
@@ -2127,19 +2253,19 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>3010</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <v>12</v>
@@ -2156,19 +2282,19 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>3010</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>12</v>
@@ -2185,19 +2311,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>3010</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57">
         <v>12</v>
@@ -2214,19 +2340,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>3010</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C58">
-        <v>3010</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F58">
         <v>12</v>
@@ -2243,19 +2369,19 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>3010</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C59">
-        <v>3010</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F59">
         <v>12</v>
@@ -2272,19 +2398,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>3010</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C60">
-        <v>3010</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F60">
         <v>12</v>
@@ -2301,19 +2427,19 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>3010</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C61">
-        <v>3010</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F61">
         <v>12</v>
@@ -2330,19 +2456,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>3010</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C62">
-        <v>3010</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F62">
         <v>12</v>
@@ -2359,19 +2485,19 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>3010</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C63">
-        <v>3010</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F63">
         <v>12</v>
@@ -2388,19 +2514,19 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>3010</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C64">
-        <v>3010</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F64">
         <v>24</v>
@@ -2417,19 +2543,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>3010</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C65">
-        <v>3010</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F65">
         <v>24</v>
@@ -2446,19 +2572,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>3010</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C66">
-        <v>3010</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F66">
         <v>24</v>
@@ -2475,19 +2601,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>3010</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C67">
-        <v>3010</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F67">
         <v>24</v>
@@ -2504,19 +2630,19 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>3010</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F68" s="5">
         <v>12</v>
@@ -2534,19 +2660,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C69">
         <v>3010</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F69" s="5">
         <v>12</v>
@@ -2564,254 +2690,254 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>4010</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="5">
-        <v>12</v>
-      </c>
-      <c r="G70" s="6">
-        <v>8500</v>
-      </c>
-      <c r="H70" s="7">
-        <v>9.9</v>
-      </c>
-      <c r="I70" s="6">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H70">
+        <v>7.3</v>
+      </c>
+      <c r="I70" s="3">
+        <v>35</v>
       </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>4010</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F71" s="5">
         <v>12</v>
       </c>
-      <c r="G71" s="6">
-        <v>7000</v>
+      <c r="G71" s="3">
+        <v>6000</v>
       </c>
       <c r="H71" s="7">
-        <v>8</v>
-      </c>
-      <c r="I71" s="6">
-        <v>27</v>
+        <v>7.2</v>
+      </c>
+      <c r="I71" s="3">
+        <v>26.3</v>
       </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>4010</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F72" s="5">
-        <v>12</v>
-      </c>
-      <c r="G72" s="6">
-        <v>5800</v>
+        <v>24</v>
+      </c>
+      <c r="G72" s="3">
+        <v>6000</v>
       </c>
       <c r="H72" s="7">
-        <v>7</v>
-      </c>
-      <c r="I72" s="6">
-        <v>20.6</v>
+        <v>7.2</v>
+      </c>
+      <c r="I72" s="3">
+        <v>26.3</v>
       </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>4010</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F73" s="5">
         <v>12</v>
       </c>
-      <c r="G73" s="3">
-        <v>9000</v>
+      <c r="G73" s="6">
+        <v>6100</v>
       </c>
       <c r="H73" s="7">
-        <v>10</v>
-      </c>
-      <c r="I73" s="3">
-        <v>33.700000000000003</v>
+        <v>7.1</v>
+      </c>
+      <c r="I73" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>4010</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F74" s="5">
         <v>12</v>
       </c>
       <c r="G74" s="7">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="H74" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I74" s="7">
-        <v>27.3</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>4010</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="5">
-        <v>12</v>
-      </c>
-      <c r="G75" s="7">
-        <v>5000</v>
-      </c>
-      <c r="H75" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="I75" s="7">
-        <v>17.7</v>
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>8000</v>
+      </c>
+      <c r="H75">
+        <v>6.92</v>
+      </c>
+      <c r="I75">
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>4010</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="5">
-        <v>12</v>
-      </c>
-      <c r="G76" s="7">
-        <v>7300</v>
-      </c>
-      <c r="H76" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I76" s="7">
-        <v>28.2</v>
+        <v>65</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <v>6000</v>
+      </c>
+      <c r="H76">
+        <v>6.92</v>
+      </c>
+      <c r="I76">
+        <v>28.5</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>4010</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="5">
-        <v>12</v>
-      </c>
-      <c r="G77" s="7">
-        <v>6100</v>
-      </c>
-      <c r="H77" s="7">
-        <v>7.1</v>
-      </c>
-      <c r="I77" s="7">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>6000</v>
+      </c>
+      <c r="H77">
+        <v>6.89</v>
+      </c>
+      <c r="I77">
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78">
         <v>5015</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F78" s="5">
         <v>12</v>
@@ -2828,19 +2954,19 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79">
         <v>5015</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F79" s="5">
         <v>12</v>
@@ -2857,19 +2983,19 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80">
         <v>5015</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F80" s="5">
         <v>12</v>
@@ -2884,21 +3010,21 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>5015</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F81" s="5">
         <v>12</v>
@@ -2913,7 +3039,830 @@
         <v>23.2</v>
       </c>
     </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>3010</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="5">
+        <v>12</v>
+      </c>
+      <c r="G82" s="7">
+        <v>11000</v>
+      </c>
+      <c r="H82" s="7">
+        <v>5</v>
+      </c>
+      <c r="I82" s="7">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>3010</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="5">
+        <v>12</v>
+      </c>
+      <c r="G83" s="7">
+        <v>9000</v>
+      </c>
+      <c r="H83" s="7">
+        <v>4</v>
+      </c>
+      <c r="I83" s="7">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>3010</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="5">
+        <v>12</v>
+      </c>
+      <c r="G84" s="7">
+        <v>8000</v>
+      </c>
+      <c r="H84" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I84" s="7">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>4010</v>
+      </c>
+      <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>7500</v>
+      </c>
+      <c r="H85">
+        <v>6.85</v>
+      </c>
+      <c r="I85">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>4010</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H86">
+        <v>6.85</v>
+      </c>
+      <c r="I86" s="3">
+        <v>36</v>
+      </c>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="9"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>4010</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
+      </c>
+      <c r="G87" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H87">
+        <v>6.38</v>
+      </c>
+      <c r="I87" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="9"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>4010</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H88">
+        <v>5.67</v>
+      </c>
+      <c r="I88" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="9"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>4010</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H89">
+        <v>5.62</v>
+      </c>
+      <c r="I89" s="3">
+        <v>31.7</v>
+      </c>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="9"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>4010</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="5">
+        <v>12</v>
+      </c>
+      <c r="G90" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H90" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="I90" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="9"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>4010</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91">
+        <v>24</v>
+      </c>
+      <c r="G91" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H91">
+        <v>5.42</v>
+      </c>
+      <c r="I91" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="9"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>4010</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H92">
+        <v>5.42</v>
+      </c>
+      <c r="I92" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="9"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>5115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="5">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H93" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="I93" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="9"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>5115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" s="5">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H94" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="9"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>5115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="5">
+        <v>12</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H95" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I95" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="9"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>4010</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="5">
+        <v>12</v>
+      </c>
+      <c r="G96" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H96" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="I96" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="9"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>4010</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" s="5">
+        <v>24</v>
+      </c>
+      <c r="G97" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H97" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="I97" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>4010</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98">
+        <v>24</v>
+      </c>
+      <c r="G98" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H98">
+        <v>5.18</v>
+      </c>
+      <c r="I98" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>4010</v>
+      </c>
+      <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+      <c r="G99">
+        <v>5500</v>
+      </c>
+      <c r="H99">
+        <v>5.18</v>
+      </c>
+      <c r="I99">
+        <v>28</v>
+      </c>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>4010</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" s="5">
+        <v>12</v>
+      </c>
+      <c r="G100" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H100" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="I100" s="11">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>4010</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" s="5">
+        <v>24</v>
+      </c>
+      <c r="G101" s="11">
+        <v>4000</v>
+      </c>
+      <c r="H101" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="I101" s="11">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>4010</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102">
+        <v>4500</v>
+      </c>
+      <c r="H102">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I102">
+        <v>23.9</v>
+      </c>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>4010</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>4000</v>
+      </c>
+      <c r="H103">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I103">
+        <v>16</v>
+      </c>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>4010</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104">
+        <v>4500</v>
+      </c>
+      <c r="H104">
+        <v>4.2</v>
+      </c>
+      <c r="I104">
+        <v>24</v>
+      </c>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>4010</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="5">
+        <v>12</v>
+      </c>
+      <c r="G105" s="11">
+        <v>5000</v>
+      </c>
+      <c r="H105" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="I105" s="11">
+        <v>21</v>
+      </c>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>3010</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106">
+        <v>10500</v>
+      </c>
+      <c r="H106">
+        <v>4.3</v>
+      </c>
+      <c r="I106">
+        <v>27</v>
+      </c>
+      <c r="N106"/>
+      <c r="P106"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>3010</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <v>8000</v>
+      </c>
+      <c r="H107">
+        <v>3.21</v>
+      </c>
+      <c r="I107">
+        <v>21</v>
+      </c>
+      <c r="N107"/>
+      <c r="P107"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>3010</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>68</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>9000</v>
+      </c>
+      <c r="H108">
+        <v>3.72</v>
+      </c>
+      <c r="I108">
+        <v>23</v>
+      </c>
+      <c r="N108"/>
+      <c r="P108"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I108" xr:uid="{4748E66B-8407-4F2F-92E1-C9B1B6A7D2C4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:I105">
+      <sortCondition descending="1" ref="H1:H108"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
 </worksheet>
